--- a/18/1.xlsx
+++ b/18/1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pluttan/Downloads/КЕГЭ files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD08A8E-590F-2240-8089-1C403D0E208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
     <sheet name="18" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,17 +363,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B475ED5-AD6D-634F-8143-A1A737654818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="150.83203125" customWidth="1"/>
+    <col min="1" max="1" width="150.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="234" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -385,16 +384,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>51</v>
       </c>
@@ -425,8 +424,47 @@
       <c r="J1">
         <v>29</v>
       </c>
+      <c r="L1">
+        <v>51</v>
+      </c>
+      <c r="M1">
+        <f>L1+B1</f>
+        <v>72</v>
+      </c>
+      <c r="N1">
+        <f t="shared" ref="N1:U1" si="0">M1+C1</f>
+        <v>165</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>482</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57</v>
       </c>
@@ -457,8 +495,48 @@
       <c r="J2">
         <v>58</v>
       </c>
+      <c r="L2">
+        <f>L1+A2</f>
+        <v>108</v>
+      </c>
+      <c r="M2">
+        <f>MIN(L2,M1)+B2</f>
+        <v>115</v>
+      </c>
+      <c r="N2">
+        <f>MIN(M2,N1)+C2</f>
+        <v>212</v>
+      </c>
+      <c r="O2">
+        <f>MIN(N2,O1)+D2</f>
+        <v>263</v>
+      </c>
+      <c r="P2">
+        <f>MIN(O2,P1)+E2</f>
+        <v>350</v>
+      </c>
+      <c r="Q2">
+        <f>MIN(P2,Q1)+F2</f>
+        <v>360</v>
+      </c>
+      <c r="R2">
+        <f>MIN(Q2,R1)+G2</f>
+        <v>453</v>
+      </c>
+      <c r="S2">
+        <f>MIN(R2,S1)+H2</f>
+        <v>485</v>
+      </c>
+      <c r="T2">
+        <f>MIN(S2,T1)+I2</f>
+        <v>501</v>
+      </c>
+      <c r="U2">
+        <f>MIN(T2,U1)+J2</f>
+        <v>559</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>63</v>
       </c>
@@ -489,8 +567,48 @@
       <c r="J3">
         <v>67</v>
       </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L10" si="1">L2+A3</f>
+        <v>171</v>
+      </c>
+      <c r="M3">
+        <f>MIN(L3,M2)+B3</f>
+        <v>131</v>
+      </c>
+      <c r="N3">
+        <f>MIN(M3,N2)+C3</f>
+        <v>162</v>
+      </c>
+      <c r="O3">
+        <f>MIN(N3,O2)+D3</f>
+        <v>178</v>
+      </c>
+      <c r="P3">
+        <f>MIN(O3,P2)+E3</f>
+        <v>256</v>
+      </c>
+      <c r="Q3">
+        <f>MIN(P3,Q2)+F3</f>
+        <v>344</v>
+      </c>
+      <c r="R3">
+        <f>MIN(Q3,R2)+G3</f>
+        <v>434</v>
+      </c>
+      <c r="S3">
+        <f>MIN(R3,S2)+H3</f>
+        <v>506</v>
+      </c>
+      <c r="T3">
+        <f>MIN(S3,T2)+I3</f>
+        <v>538</v>
+      </c>
+      <c r="U3">
+        <f>MIN(T3,U2)+J3</f>
+        <v>605</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -521,8 +639,48 @@
       <c r="J4">
         <v>69</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="M4">
+        <f>MIN(L4,M3)+B4</f>
+        <v>188</v>
+      </c>
+      <c r="N4">
+        <f>MIN(M4,N3)+C4</f>
+        <v>226</v>
+      </c>
+      <c r="O4">
+        <f>MIN(N4,O3)+D4</f>
+        <v>203</v>
+      </c>
+      <c r="P4">
+        <f>MIN(O4,P3)+E4</f>
+        <v>299</v>
+      </c>
+      <c r="Q4">
+        <f>MIN(P4,Q3)+F4</f>
+        <v>349</v>
+      </c>
+      <c r="R4">
+        <f>MIN(Q4,R3)+G4</f>
+        <v>430</v>
+      </c>
+      <c r="S4">
+        <f>MIN(R4,S3)+H4</f>
+        <v>495</v>
+      </c>
+      <c r="T4">
+        <f>MIN(S4,T3)+I4</f>
+        <v>586</v>
+      </c>
+      <c r="U4">
+        <f>MIN(T4,U3)+J4</f>
+        <v>655</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99</v>
       </c>
@@ -553,8 +711,48 @@
       <c r="J5">
         <v>65</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="M5">
+        <f>MIN(L5,M4)+B5</f>
+        <v>231</v>
+      </c>
+      <c r="N5">
+        <f>MIN(M5,N4)+C5</f>
+        <v>321</v>
+      </c>
+      <c r="O5">
+        <f>MIN(N5,O4)+D5</f>
+        <v>210</v>
+      </c>
+      <c r="P5">
+        <f>MIN(O5,P4)+E5</f>
+        <v>250</v>
+      </c>
+      <c r="Q5">
+        <f>MIN(P5,Q4)+F5</f>
+        <v>326</v>
+      </c>
+      <c r="R5">
+        <f>MIN(Q5,R4)+G5</f>
+        <v>344</v>
+      </c>
+      <c r="S5">
+        <f>MIN(R5,S4)+H5</f>
+        <v>378</v>
+      </c>
+      <c r="T5">
+        <f>MIN(S5,T4)+I5</f>
+        <v>383</v>
+      </c>
+      <c r="U5">
+        <f>MIN(T5,U4)+J5</f>
+        <v>448</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
@@ -585,8 +783,48 @@
       <c r="J6">
         <v>2</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="M6">
+        <f>MIN(L6,M5)+B6</f>
+        <v>250</v>
+      </c>
+      <c r="N6">
+        <f>MIN(M6,N5)+C6</f>
+        <v>321</v>
+      </c>
+      <c r="O6">
+        <f>MIN(N6,O5)+D6</f>
+        <v>287</v>
+      </c>
+      <c r="P6">
+        <f>MIN(O6,P5)+E6</f>
+        <v>314</v>
+      </c>
+      <c r="Q6">
+        <f>MIN(P6,Q5)+F6</f>
+        <v>352</v>
+      </c>
+      <c r="R6">
+        <f>MIN(Q6,R5)+G6</f>
+        <v>406</v>
+      </c>
+      <c r="S6">
+        <f>MIN(R6,S5)+H6</f>
+        <v>434</v>
+      </c>
+      <c r="T6">
+        <f>MIN(S6,T5)+I6</f>
+        <v>393</v>
+      </c>
+      <c r="U6">
+        <f>MIN(T6,U5)+J6</f>
+        <v>395</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -617,8 +855,48 @@
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="M7">
+        <f>MIN(L7,M6)+B7</f>
+        <v>307</v>
+      </c>
+      <c r="N7">
+        <f>MIN(M7,N6)+C7</f>
+        <v>334</v>
+      </c>
+      <c r="O7">
+        <f>MIN(N7,O6)+D7</f>
+        <v>313</v>
+      </c>
+      <c r="P7">
+        <f>MIN(O7,P6)+E7</f>
+        <v>364</v>
+      </c>
+      <c r="Q7">
+        <f>MIN(P7,Q6)+F7</f>
+        <v>385</v>
+      </c>
+      <c r="R7">
+        <f>MIN(Q7,R6)+G7</f>
+        <v>485</v>
+      </c>
+      <c r="S7">
+        <f>MIN(R7,S6)+H7</f>
+        <v>445</v>
+      </c>
+      <c r="T7">
+        <f>MIN(S7,T6)+I7</f>
+        <v>446</v>
+      </c>
+      <c r="U7">
+        <f>MIN(T7,U6)+J7</f>
+        <v>396</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -649,8 +927,48 @@
       <c r="J8">
         <v>39</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="M8">
+        <f>MIN(L8,M7)+B8</f>
+        <v>386</v>
+      </c>
+      <c r="N8">
+        <f>MIN(M8,N7)+C8</f>
+        <v>383</v>
+      </c>
+      <c r="O8">
+        <f>MIN(N8,O7)+D8</f>
+        <v>359</v>
+      </c>
+      <c r="P8">
+        <f>MIN(O8,P7)+E8</f>
+        <v>396</v>
+      </c>
+      <c r="Q8">
+        <f>MIN(P8,Q7)+F8</f>
+        <v>454</v>
+      </c>
+      <c r="R8">
+        <f>MIN(Q8,R7)+G8</f>
+        <v>534</v>
+      </c>
+      <c r="S8">
+        <f>MIN(R8,S7)+H8</f>
+        <v>476</v>
+      </c>
+      <c r="T8">
+        <f>MIN(S8,T7)+I8</f>
+        <v>471</v>
+      </c>
+      <c r="U8">
+        <f>MIN(T8,U7)+J8</f>
+        <v>435</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -681,8 +999,48 @@
       <c r="J9">
         <v>34</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+      <c r="M9">
+        <f>MIN(L9,M8)+B9</f>
+        <v>457</v>
+      </c>
+      <c r="N9">
+        <f>MIN(M9,N8)+C9</f>
+        <v>403</v>
+      </c>
+      <c r="O9">
+        <f>MIN(N9,O8)+D9</f>
+        <v>382</v>
+      </c>
+      <c r="P9">
+        <f>MIN(O9,P8)+E9</f>
+        <v>393</v>
+      </c>
+      <c r="Q9">
+        <f>MIN(P9,Q8)+F9</f>
+        <v>405</v>
+      </c>
+      <c r="R9">
+        <f>MIN(Q9,R8)+G9</f>
+        <v>444</v>
+      </c>
+      <c r="S9">
+        <f>MIN(R9,S8)+H9</f>
+        <v>460</v>
+      </c>
+      <c r="T9">
+        <f>MIN(S9,T8)+I9</f>
+        <v>524</v>
+      </c>
+      <c r="U9">
+        <f>MIN(T9,U8)+J9</f>
+        <v>469</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -712,6 +1070,46 @@
       </c>
       <c r="J10">
         <v>33</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>452</v>
+      </c>
+      <c r="M10">
+        <f>MIN(L10,M9)+B10</f>
+        <v>477</v>
+      </c>
+      <c r="N10">
+        <f>MIN(M10,N9)+C10</f>
+        <v>490</v>
+      </c>
+      <c r="O10">
+        <f>MIN(N10,O9)+D10</f>
+        <v>466</v>
+      </c>
+      <c r="P10">
+        <f>MIN(O10,P9)+E10</f>
+        <v>423</v>
+      </c>
+      <c r="Q10">
+        <f>MIN(P10,Q9)+F10</f>
+        <v>453</v>
+      </c>
+      <c r="R10">
+        <f>MIN(Q10,R9)+G10</f>
+        <v>521</v>
+      </c>
+      <c r="S10">
+        <f>MIN(R10,S9)+H10</f>
+        <v>473</v>
+      </c>
+      <c r="T10">
+        <f>MIN(S10,T9)+I10</f>
+        <v>513</v>
+      </c>
+      <c r="U10">
+        <f>MIN(T10,U9)+J10</f>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
